--- a/ListGenOut.xlsx
+++ b/ListGenOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,18 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -468,12 +480,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>G5_3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>G2_2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>G5_2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>G5_4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>G7_4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>G3_4</t>
         </is>
       </c>
     </row>

--- a/ListGenOut.xlsx
+++ b/ListGenOut.xlsx
@@ -465,47 +465,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>G4_1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>G5_1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>G6_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>G4_1</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>G2_2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>G5_2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>G5_3</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>G2_2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>G5_2</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>G3_4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>G5_4</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>G7_4</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>G3_4</t>
         </is>
       </c>
     </row>
